--- a/Code/Results/Cases/Case_4_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010218062809558</v>
+        <v>1.053688336687904</v>
       </c>
       <c r="D2">
-        <v>1.027414713455905</v>
+        <v>1.053224172736799</v>
       </c>
       <c r="E2">
-        <v>1.027460776891432</v>
+        <v>1.067052245689223</v>
       </c>
       <c r="F2">
-        <v>1.03334881430016</v>
+        <v>1.073819758462312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051711323433263</v>
+        <v>1.044018555029285</v>
       </c>
       <c r="J2">
-        <v>1.032097390241859</v>
+        <v>1.058704366918162</v>
       </c>
       <c r="K2">
-        <v>1.038504886020062</v>
+        <v>1.055970732190669</v>
       </c>
       <c r="L2">
-        <v>1.038550349937237</v>
+        <v>1.069761144368334</v>
       </c>
       <c r="M2">
-        <v>1.044362304410649</v>
+        <v>1.076510608028805</v>
       </c>
       <c r="N2">
-        <v>1.012662298176518</v>
+        <v>1.023093616204831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017981794626943</v>
+        <v>1.055204358522632</v>
       </c>
       <c r="D3">
-        <v>1.033424975761589</v>
+        <v>1.054392980942034</v>
       </c>
       <c r="E3">
-        <v>1.034850801389374</v>
+        <v>1.068549286794199</v>
       </c>
       <c r="F3">
-        <v>1.040957324467829</v>
+        <v>1.075366446613404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054489468058435</v>
+        <v>1.044442214793061</v>
       </c>
       <c r="J3">
-        <v>1.037993978415193</v>
+        <v>1.059868624403078</v>
       </c>
       <c r="K3">
-        <v>1.043647320328144</v>
+        <v>1.056951630958195</v>
       </c>
       <c r="L3">
-        <v>1.045056363840806</v>
+        <v>1.071072199742939</v>
       </c>
       <c r="M3">
-        <v>1.05109165530745</v>
+        <v>1.077872511106802</v>
       </c>
       <c r="N3">
-        <v>1.014824197303703</v>
+        <v>1.023504317320371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022848275368977</v>
+        <v>1.056183620603639</v>
       </c>
       <c r="D4">
-        <v>1.03719362988791</v>
+        <v>1.055147570096798</v>
       </c>
       <c r="E4">
-        <v>1.039488883032808</v>
+        <v>1.069516625305981</v>
       </c>
       <c r="F4">
-        <v>1.045733193798775</v>
+        <v>1.076365958885525</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056215479204932</v>
+        <v>1.044713962707362</v>
       </c>
       <c r="J4">
-        <v>1.041685043199987</v>
+        <v>1.060619873260096</v>
       </c>
       <c r="K4">
-        <v>1.04686296439907</v>
+        <v>1.057584057811893</v>
       </c>
       <c r="L4">
-        <v>1.049132974229352</v>
+        <v>1.071918683719517</v>
       </c>
       <c r="M4">
-        <v>1.055309297561942</v>
+        <v>1.078751952879821</v>
       </c>
       <c r="N4">
-        <v>1.01617488203291</v>
+        <v>1.023768786451821</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024858718906267</v>
+        <v>1.056594902578915</v>
       </c>
       <c r="D5">
-        <v>1.038750733733514</v>
+        <v>1.055464396108367</v>
       </c>
       <c r="E5">
-        <v>1.041406304226115</v>
+        <v>1.069922979573706</v>
       </c>
       <c r="F5">
-        <v>1.047707738877626</v>
+        <v>1.076785850915315</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056924769864274</v>
+        <v>1.044827636442696</v>
       </c>
       <c r="J5">
-        <v>1.043208624715739</v>
+        <v>1.060935201098663</v>
       </c>
       <c r="K5">
-        <v>1.048189472898907</v>
+        <v>1.057849389447092</v>
       </c>
       <c r="L5">
-        <v>1.050816679384162</v>
+        <v>1.072274108152175</v>
       </c>
       <c r="M5">
-        <v>1.057051512153277</v>
+        <v>1.079121246357433</v>
       </c>
       <c r="N5">
-        <v>1.016731757655013</v>
+        <v>1.023879664631491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025194264312559</v>
+        <v>1.056663935433021</v>
       </c>
       <c r="D6">
-        <v>1.039010624522601</v>
+        <v>1.05551756910411</v>
       </c>
       <c r="E6">
-        <v>1.041726400642808</v>
+        <v>1.069991190002979</v>
       </c>
       <c r="F6">
-        <v>1.048037381169215</v>
+        <v>1.076856335099658</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057042928261412</v>
+        <v>1.044846689468672</v>
       </c>
       <c r="J6">
-        <v>1.043462835641775</v>
+        <v>1.060988117061183</v>
       </c>
       <c r="K6">
-        <v>1.048410752340563</v>
+        <v>1.057893908246988</v>
       </c>
       <c r="L6">
-        <v>1.051097664850404</v>
+        <v>1.072333760030445</v>
       </c>
       <c r="M6">
-        <v>1.057342277314146</v>
+        <v>1.079183227711841</v>
       </c>
       <c r="N6">
-        <v>1.016824633455842</v>
+        <v>1.023898263766725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022875275442455</v>
+        <v>1.056189117733994</v>
       </c>
       <c r="D7">
-        <v>1.037214541022758</v>
+        <v>1.055151805119128</v>
       </c>
       <c r="E7">
-        <v>1.039514628630526</v>
+        <v>1.069522056259218</v>
       </c>
       <c r="F7">
-        <v>1.045759705768935</v>
+        <v>1.076371570683907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056225019887667</v>
+        <v>1.044715483854224</v>
       </c>
       <c r="J7">
-        <v>1.041705509882023</v>
+        <v>1.060624088631762</v>
       </c>
       <c r="K7">
-        <v>1.046880787073545</v>
+        <v>1.057587605303929</v>
       </c>
       <c r="L7">
-        <v>1.049155588008757</v>
+        <v>1.071923434628312</v>
       </c>
       <c r="M7">
-        <v>1.055332696146577</v>
+        <v>1.078756889053842</v>
       </c>
       <c r="N7">
-        <v>1.016182365325938</v>
+        <v>1.023770269205725</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012875786166554</v>
+        <v>1.054201041600414</v>
       </c>
       <c r="D8">
-        <v>1.029471834731581</v>
+        <v>1.053619533963751</v>
       </c>
       <c r="E8">
-        <v>1.029989290209954</v>
+        <v>1.067558461318263</v>
       </c>
       <c r="F8">
-        <v>1.035951944406442</v>
+        <v>1.074342742577213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052665563141268</v>
+        <v>1.044162228954423</v>
       </c>
       <c r="J8">
-        <v>1.03411696981839</v>
+        <v>1.059098272625486</v>
       </c>
       <c r="K8">
-        <v>1.04026685803539</v>
+        <v>1.056302706849705</v>
       </c>
       <c r="L8">
-        <v>1.040777800287995</v>
+        <v>1.070204610315209</v>
       </c>
       <c r="M8">
-        <v>1.046665987113837</v>
+        <v>1.076971246733027</v>
       </c>
       <c r="N8">
-        <v>1.013403275409245</v>
+        <v>1.023232681370149</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9939410165917248</v>
+        <v>1.050684354862893</v>
       </c>
       <c r="D9">
-        <v>1.014826872132034</v>
+        <v>1.050906143184571</v>
       </c>
       <c r="E9">
-        <v>1.012003718450589</v>
+        <v>1.064087693037093</v>
       </c>
       <c r="F9">
-        <v>1.01743838627992</v>
+        <v>1.070757388537441</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045803340740958</v>
+        <v>1.043168911161436</v>
       </c>
       <c r="J9">
-        <v>1.019709562518944</v>
+        <v>1.056393189943942</v>
       </c>
       <c r="K9">
-        <v>1.027683888201161</v>
+        <v>1.054020849829728</v>
       </c>
       <c r="L9">
-        <v>1.024905000135895</v>
+        <v>1.067161287600447</v>
       </c>
       <c r="M9">
-        <v>1.030254734600959</v>
+        <v>1.073810601644472</v>
       </c>
       <c r="N9">
-        <v>1.008107431853042</v>
+        <v>1.022275463068776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9802578074310162</v>
+        <v>1.048330323989522</v>
       </c>
       <c r="D10">
-        <v>1.004264348632494</v>
+        <v>1.049087895379035</v>
       </c>
       <c r="E10">
-        <v>0.9990474771609449</v>
+        <v>1.061766193076434</v>
       </c>
       <c r="F10">
-        <v>1.004105231159706</v>
+        <v>1.068359727875051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040766062261526</v>
+        <v>1.042494149757601</v>
       </c>
       <c r="J10">
-        <v>1.009277209629009</v>
+        <v>1.054578368808441</v>
       </c>
       <c r="K10">
-        <v>1.01855703344891</v>
+        <v>1.052487375052007</v>
       </c>
       <c r="L10">
-        <v>1.013433951025407</v>
+        <v>1.065122189376543</v>
       </c>
       <c r="M10">
-        <v>1.018400757883974</v>
+        <v>1.071693558035738</v>
       </c>
       <c r="N10">
-        <v>1.004261901440361</v>
+        <v>1.021630504976667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9740343275438192</v>
+        <v>1.047308612363881</v>
       </c>
       <c r="D11">
-        <v>0.9994676029569047</v>
+        <v>1.0482982832074</v>
       </c>
       <c r="E11">
-        <v>0.9931659595547326</v>
+        <v>1.060759033776252</v>
       </c>
       <c r="F11">
-        <v>0.9980533834230833</v>
+        <v>1.067319641404722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038457674860048</v>
+        <v>1.042198955584949</v>
       </c>
       <c r="J11">
-        <v>1.004528676490413</v>
+        <v>1.053789728467163</v>
       </c>
       <c r="K11">
-        <v>1.014399566495198</v>
+        <v>1.051820385837317</v>
       </c>
       <c r="L11">
-        <v>1.008217917006133</v>
+        <v>1.064236714620773</v>
       </c>
       <c r="M11">
-        <v>1.013012103687695</v>
+        <v>1.070774393186369</v>
       </c>
       <c r="N11">
-        <v>1.002509574584662</v>
+        <v>1.021349583046477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716730700538773</v>
+        <v>1.046928732103372</v>
       </c>
       <c r="D12">
-        <v>0.9976490099505572</v>
+        <v>1.0480046337129</v>
       </c>
       <c r="E12">
-        <v>0.9909363004850084</v>
+        <v>1.060384629887008</v>
       </c>
       <c r="F12">
-        <v>0.9957592643741364</v>
+        <v>1.066933014266863</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037579374029524</v>
+        <v>1.042088850510707</v>
       </c>
       <c r="J12">
-        <v>1.002726615283309</v>
+        <v>1.053496362102849</v>
       </c>
       <c r="K12">
-        <v>1.012821390250439</v>
+        <v>1.051572181371409</v>
       </c>
       <c r="L12">
-        <v>1.006239231437628</v>
+        <v>1.063907420839542</v>
       </c>
       <c r="M12">
-        <v>1.010968163677896</v>
+        <v>1.070432594290816</v>
       </c>
       <c r="N12">
-        <v>1.001844337221494</v>
+        <v>1.021244985306196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9721818949335811</v>
+        <v>1.047010234668252</v>
       </c>
       <c r="D13">
-        <v>0.9980408317801756</v>
+        <v>1.048067638585096</v>
       </c>
       <c r="E13">
-        <v>0.9914166810389378</v>
+        <v>1.060464954524006</v>
       </c>
       <c r="F13">
-        <v>0.9962535278908856</v>
+        <v>1.067015960503285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037768747525293</v>
+        <v>1.042112489149511</v>
       </c>
       <c r="J13">
-        <v>1.003114956002147</v>
+        <v>1.053559309780656</v>
       </c>
       <c r="K13">
-        <v>1.013161502426885</v>
+        <v>1.051625442766774</v>
       </c>
       <c r="L13">
-        <v>1.006665598699862</v>
+        <v>1.063978073217761</v>
       </c>
       <c r="M13">
-        <v>1.011408581613192</v>
+        <v>1.070505928660317</v>
       </c>
       <c r="N13">
-        <v>1.001987704031602</v>
+        <v>1.02126743327238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738401864973139</v>
+        <v>1.047277218973182</v>
       </c>
       <c r="D14">
-        <v>0.9993180506879041</v>
+        <v>1.04827401727766</v>
       </c>
       <c r="E14">
-        <v>0.9929825999251629</v>
+        <v>1.060728091610459</v>
       </c>
       <c r="F14">
-        <v>0.9978647205902083</v>
+        <v>1.067287688712707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038385510866592</v>
+        <v>1.04218986360378</v>
       </c>
       <c r="J14">
-        <v>1.004380519797297</v>
+        <v>1.053765487534619</v>
       </c>
       <c r="K14">
-        <v>1.014269824804291</v>
+        <v>1.051799878498368</v>
       </c>
       <c r="L14">
-        <v>1.008055223097204</v>
+        <v>1.064209503080576</v>
       </c>
       <c r="M14">
-        <v>1.012844039701169</v>
+        <v>1.070746147789659</v>
       </c>
       <c r="N14">
-        <v>1.002454886343764</v>
+        <v>1.021340942097774</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9748551916445785</v>
+        <v>1.047441667332267</v>
       </c>
       <c r="D15">
-        <v>1.000099993621565</v>
+        <v>1.048401127097778</v>
       </c>
       <c r="E15">
-        <v>0.9939413140787579</v>
+        <v>1.060890179006438</v>
       </c>
       <c r="F15">
-        <v>0.9988511675725867</v>
+        <v>1.067455070351026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038762697901421</v>
+        <v>1.042237475924338</v>
       </c>
       <c r="J15">
-        <v>1.005155094244795</v>
+        <v>1.053892463205742</v>
       </c>
       <c r="K15">
-        <v>1.014948107336186</v>
+        <v>1.051907293623259</v>
       </c>
       <c r="L15">
-        <v>1.008905831330983</v>
+        <v>1.064352042846431</v>
       </c>
       <c r="M15">
-        <v>1.013722733462841</v>
+        <v>1.070894104082911</v>
       </c>
       <c r="N15">
-        <v>1.002740791576237</v>
+        <v>1.021386199989685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9806641611723692</v>
+        <v>1.048398080159848</v>
       </c>
       <c r="D16">
-        <v>1.004577717161014</v>
+        <v>1.049140250307993</v>
       </c>
       <c r="E16">
-        <v>0.9994317490988815</v>
+        <v>1.061832993360174</v>
       </c>
       <c r="F16">
-        <v>1.004500647281186</v>
+        <v>1.068428714475442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040916438288489</v>
+        <v>1.042513676947592</v>
       </c>
       <c r="J16">
-        <v>1.009587194330359</v>
+        <v>1.054630648374251</v>
       </c>
       <c r="K16">
-        <v>1.018828372184713</v>
+        <v>1.052531577488566</v>
       </c>
       <c r="L16">
-        <v>1.013774563137694</v>
+        <v>1.065180901340746</v>
       </c>
       <c r="M16">
-        <v>1.018752673507655</v>
+        <v>1.071754507160144</v>
       </c>
       <c r="N16">
-        <v>1.004376258287094</v>
+        <v>1.021649113819732</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842249150675709</v>
+        <v>1.048997362608279</v>
       </c>
       <c r="D17">
-        <v>1.007324524392045</v>
+        <v>1.049603262377214</v>
       </c>
       <c r="E17">
-        <v>1.002800296835087</v>
+        <v>1.062423871332043</v>
       </c>
       <c r="F17">
-        <v>1.007966971867426</v>
+        <v>1.069038944582029</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042232204314867</v>
+        <v>1.042686120156578</v>
       </c>
       <c r="J17">
-        <v>1.01230310141697</v>
+        <v>1.055092934312603</v>
       </c>
       <c r="K17">
-        <v>1.021205335516014</v>
+        <v>1.052922370594503</v>
       </c>
       <c r="L17">
-        <v>1.016759404211135</v>
+        <v>1.065700138457478</v>
       </c>
       <c r="M17">
-        <v>1.021836738468763</v>
+        <v>1.072293547459451</v>
       </c>
       <c r="N17">
-        <v>1.005377975085562</v>
+        <v>1.02181358877065</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.986273388976796</v>
+        <v>1.049346682992955</v>
       </c>
       <c r="D18">
-        <v>1.008905414177059</v>
+        <v>1.0498731081523</v>
       </c>
       <c r="E18">
-        <v>1.004739245317354</v>
+        <v>1.062768334447768</v>
       </c>
       <c r="F18">
-        <v>1.009962273652716</v>
+        <v>1.069394700402342</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04298752481396</v>
+        <v>1.042786412397586</v>
       </c>
       <c r="J18">
-        <v>1.013865192628915</v>
+        <v>1.055362307216305</v>
       </c>
       <c r="K18">
-        <v>1.022572178942645</v>
+        <v>1.053150026087282</v>
       </c>
       <c r="L18">
-        <v>1.018476671596596</v>
+        <v>1.066002756993207</v>
       </c>
       <c r="M18">
-        <v>1.023611232793247</v>
+        <v>1.072607722736812</v>
       </c>
       <c r="N18">
-        <v>1.005953940242582</v>
+        <v>1.021909365137815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9869671719579061</v>
+        <v>1.049465753360239</v>
       </c>
       <c r="D19">
-        <v>1.009440942015617</v>
+        <v>1.049965081256954</v>
       </c>
       <c r="E19">
-        <v>1.005396107685522</v>
+        <v>1.062885756202554</v>
       </c>
       <c r="F19">
-        <v>1.010638239401525</v>
+        <v>1.069515973522546</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043243059020309</v>
+        <v>1.042820560209127</v>
       </c>
       <c r="J19">
-        <v>1.014394183372606</v>
+        <v>1.055454110744933</v>
       </c>
       <c r="K19">
-        <v>1.023034998201876</v>
+        <v>1.053227602157826</v>
       </c>
       <c r="L19">
-        <v>1.019058295680518</v>
+        <v>1.066105901020236</v>
       </c>
       <c r="M19">
-        <v>1.024212262919622</v>
+        <v>1.072714808318812</v>
       </c>
       <c r="N19">
-        <v>1.006148953404024</v>
+        <v>1.021941995504259</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838458549239865</v>
+        <v>1.048933089234351</v>
       </c>
       <c r="D20">
-        <v>1.007032041381274</v>
+        <v>1.049553608508117</v>
       </c>
       <c r="E20">
-        <v>1.002441587873225</v>
+        <v>1.062360495025802</v>
       </c>
       <c r="F20">
-        <v>1.007597843354477</v>
+        <v>1.068973491466792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042092302998709</v>
+        <v>1.042667648752699</v>
       </c>
       <c r="J20">
-        <v>1.01201401487901</v>
+        <v>1.055043363459843</v>
       </c>
       <c r="K20">
-        <v>1.020952357639309</v>
+        <v>1.052880471979297</v>
       </c>
       <c r="L20">
-        <v>1.016441640338218</v>
+        <v>1.065644454497558</v>
       </c>
       <c r="M20">
-        <v>1.02150839666958</v>
+        <v>1.072235738198997</v>
       </c>
       <c r="N20">
-        <v>1.005271369302048</v>
+        <v>1.021795958640685</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9733532710707166</v>
+        <v>1.047198609077027</v>
       </c>
       <c r="D21">
-        <v>0.9989429886272434</v>
+        <v>1.048213253680382</v>
       </c>
       <c r="E21">
-        <v>0.9925227551817216</v>
+        <v>1.06065061265698</v>
       </c>
       <c r="F21">
-        <v>0.9973915778022151</v>
+        <v>1.067207679686506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038204480689174</v>
+        <v>1.042167091393223</v>
       </c>
       <c r="J21">
-        <v>1.0040089292264</v>
+        <v>1.053704785265358</v>
       </c>
       <c r="K21">
-        <v>1.013944414122148</v>
+        <v>1.05174852413579</v>
       </c>
       <c r="L21">
-        <v>1.007647184565946</v>
+        <v>1.064141363563303</v>
       </c>
       <c r="M21">
-        <v>1.012422536624225</v>
+        <v>1.070675419809122</v>
       </c>
       <c r="N21">
-        <v>1.002317719708147</v>
+        <v>1.021319302527599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9664664317638632</v>
+        <v>1.046105920450395</v>
       </c>
       <c r="D22">
-        <v>0.9936417392398953</v>
+        <v>1.047368477147256</v>
       </c>
       <c r="E22">
-        <v>0.9860234533464526</v>
+        <v>1.059573800832433</v>
       </c>
       <c r="F22">
-        <v>0.990704586162822</v>
+        <v>1.066095745311604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035638282759193</v>
+        <v>1.041849726420446</v>
       </c>
       <c r="J22">
-        <v>0.9987524135450367</v>
+        <v>1.052860674884668</v>
       </c>
       <c r="K22">
-        <v>1.009340215654556</v>
+        <v>1.051034187956304</v>
       </c>
       <c r="L22">
-        <v>1.001876967790621</v>
+        <v>1.063194055477602</v>
       </c>
       <c r="M22">
-        <v>1.006462463785337</v>
+        <v>1.069692181842595</v>
       </c>
       <c r="N22">
-        <v>1.000376889807676</v>
+        <v>1.021018157292891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9701465080462721</v>
+        <v>1.046685382850977</v>
       </c>
       <c r="D23">
-        <v>0.9964736945406715</v>
+        <v>1.047816505105496</v>
       </c>
       <c r="E23">
-        <v>0.9894953611127798</v>
+        <v>1.060144807346355</v>
       </c>
       <c r="F23">
-        <v>0.9942766979365385</v>
+        <v>1.066685367020937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0370108690836</v>
+        <v>1.042018219423697</v>
       </c>
       <c r="J23">
-        <v>1.001561476592947</v>
+        <v>1.05330839275552</v>
       </c>
       <c r="K23">
-        <v>1.011800893800828</v>
+        <v>1.051413123122504</v>
       </c>
       <c r="L23">
-        <v>1.004960117545379</v>
+        <v>1.063696458090546</v>
       </c>
       <c r="M23">
-        <v>1.009646931102285</v>
+        <v>1.07021362678536</v>
       </c>
       <c r="N23">
-        <v>1.001414164716546</v>
+        <v>1.021177938714871</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840172234672293</v>
+        <v>1.048962132319121</v>
       </c>
       <c r="D24">
-        <v>1.007164267366922</v>
+        <v>1.049576045638348</v>
       </c>
       <c r="E24">
-        <v>1.002603752641157</v>
+        <v>1.062389132625544</v>
       </c>
       <c r="F24">
-        <v>1.007764718356154</v>
+        <v>1.06900306747189</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042155555779138</v>
+        <v>1.042675996084173</v>
       </c>
       <c r="J24">
-        <v>1.01214470852858</v>
+        <v>1.055065763230939</v>
       </c>
       <c r="K24">
-        <v>1.021066727794857</v>
+        <v>1.052899405048566</v>
       </c>
       <c r="L24">
-        <v>1.016585297236154</v>
+        <v>1.065669616435317</v>
       </c>
       <c r="M24">
-        <v>1.021656835273372</v>
+        <v>1.072261860450423</v>
       </c>
       <c r="N24">
-        <v>1.005319565483797</v>
+        <v>1.021803925429189</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.999008680896102</v>
+        <v>1.051595150525509</v>
       </c>
       <c r="D25">
-        <v>1.018743640621989</v>
+        <v>1.051609236261452</v>
       </c>
       <c r="E25">
-        <v>1.016810844574605</v>
+        <v>1.064986283180051</v>
       </c>
       <c r="F25">
-        <v>1.022386035360827</v>
+        <v>1.07168556026776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047653588670387</v>
+        <v>1.043427906970109</v>
       </c>
       <c r="J25">
-        <v>1.023569453000901</v>
+        <v>1.057094503760869</v>
       </c>
       <c r="K25">
-        <v>1.031057790461621</v>
+        <v>1.054612896631418</v>
       </c>
       <c r="L25">
-        <v>1.029153680857126</v>
+        <v>1.067949827408631</v>
       </c>
       <c r="M25">
-        <v>1.034646499253587</v>
+        <v>1.074629423666934</v>
       </c>
       <c r="N25">
-        <v>1.009528264130817</v>
+        <v>1.022524117154669</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053688336687904</v>
+        <v>1.010218062809559</v>
       </c>
       <c r="D2">
-        <v>1.053224172736799</v>
+        <v>1.027414713455906</v>
       </c>
       <c r="E2">
-        <v>1.067052245689223</v>
+        <v>1.027460776891433</v>
       </c>
       <c r="F2">
-        <v>1.073819758462312</v>
+        <v>1.03334881430016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044018555029285</v>
+        <v>1.051711323433263</v>
       </c>
       <c r="J2">
-        <v>1.058704366918162</v>
+        <v>1.03209739024186</v>
       </c>
       <c r="K2">
-        <v>1.055970732190669</v>
+        <v>1.038504886020063</v>
       </c>
       <c r="L2">
-        <v>1.069761144368334</v>
+        <v>1.038550349937237</v>
       </c>
       <c r="M2">
-        <v>1.076510608028805</v>
+        <v>1.044362304410649</v>
       </c>
       <c r="N2">
-        <v>1.023093616204831</v>
+        <v>1.012662298176518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055204358522632</v>
+        <v>1.017981794626942</v>
       </c>
       <c r="D3">
-        <v>1.054392980942034</v>
+        <v>1.033424975761589</v>
       </c>
       <c r="E3">
-        <v>1.068549286794199</v>
+        <v>1.034850801389374</v>
       </c>
       <c r="F3">
-        <v>1.075366446613404</v>
+        <v>1.040957324467828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044442214793061</v>
+        <v>1.054489468058435</v>
       </c>
       <c r="J3">
-        <v>1.059868624403078</v>
+        <v>1.037993978415193</v>
       </c>
       <c r="K3">
-        <v>1.056951630958195</v>
+        <v>1.043647320328144</v>
       </c>
       <c r="L3">
-        <v>1.071072199742939</v>
+        <v>1.045056363840806</v>
       </c>
       <c r="M3">
-        <v>1.077872511106802</v>
+        <v>1.05109165530745</v>
       </c>
       <c r="N3">
-        <v>1.023504317320371</v>
+        <v>1.014824197303703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056183620603639</v>
+        <v>1.022848275368975</v>
       </c>
       <c r="D4">
-        <v>1.055147570096798</v>
+        <v>1.037193629887908</v>
       </c>
       <c r="E4">
-        <v>1.069516625305981</v>
+        <v>1.039488883032805</v>
       </c>
       <c r="F4">
-        <v>1.076365958885525</v>
+        <v>1.045733193798773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044713962707362</v>
+        <v>1.056215479204931</v>
       </c>
       <c r="J4">
-        <v>1.060619873260096</v>
+        <v>1.041685043199985</v>
       </c>
       <c r="K4">
-        <v>1.057584057811893</v>
+        <v>1.046862964399068</v>
       </c>
       <c r="L4">
-        <v>1.071918683719517</v>
+        <v>1.049132974229349</v>
       </c>
       <c r="M4">
-        <v>1.078751952879821</v>
+        <v>1.05530929756194</v>
       </c>
       <c r="N4">
-        <v>1.023768786451821</v>
+        <v>1.016174882032909</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056594902578915</v>
+        <v>1.024858718906268</v>
       </c>
       <c r="D5">
-        <v>1.055464396108367</v>
+        <v>1.038750733733514</v>
       </c>
       <c r="E5">
-        <v>1.069922979573706</v>
+        <v>1.041406304226116</v>
       </c>
       <c r="F5">
-        <v>1.076785850915315</v>
+        <v>1.047707738877627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044827636442696</v>
+        <v>1.056924769864274</v>
       </c>
       <c r="J5">
-        <v>1.060935201098663</v>
+        <v>1.04320862471574</v>
       </c>
       <c r="K5">
-        <v>1.057849389447092</v>
+        <v>1.048189472898907</v>
       </c>
       <c r="L5">
-        <v>1.072274108152175</v>
+        <v>1.050816679384162</v>
       </c>
       <c r="M5">
-        <v>1.079121246357433</v>
+        <v>1.057051512153278</v>
       </c>
       <c r="N5">
-        <v>1.023879664631491</v>
+        <v>1.016731757655013</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056663935433021</v>
+        <v>1.025194264312558</v>
       </c>
       <c r="D6">
-        <v>1.05551756910411</v>
+        <v>1.039010624522599</v>
       </c>
       <c r="E6">
-        <v>1.069991190002979</v>
+        <v>1.041726400642806</v>
       </c>
       <c r="F6">
-        <v>1.076856335099658</v>
+        <v>1.048037381169214</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044846689468672</v>
+        <v>1.057042928261411</v>
       </c>
       <c r="J6">
-        <v>1.060988117061183</v>
+        <v>1.043462835641773</v>
       </c>
       <c r="K6">
-        <v>1.057893908246988</v>
+        <v>1.048410752340561</v>
       </c>
       <c r="L6">
-        <v>1.072333760030445</v>
+        <v>1.051097664850403</v>
       </c>
       <c r="M6">
-        <v>1.079183227711841</v>
+        <v>1.057342277314145</v>
       </c>
       <c r="N6">
-        <v>1.023898263766725</v>
+        <v>1.016824633455841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056189117733994</v>
+        <v>1.022875275442456</v>
       </c>
       <c r="D7">
-        <v>1.055151805119128</v>
+        <v>1.03721454102276</v>
       </c>
       <c r="E7">
-        <v>1.069522056259218</v>
+        <v>1.039514628630527</v>
       </c>
       <c r="F7">
-        <v>1.076371570683907</v>
+        <v>1.045759705768937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044715483854224</v>
+        <v>1.056225019887668</v>
       </c>
       <c r="J7">
-        <v>1.060624088631762</v>
+        <v>1.041705509882025</v>
       </c>
       <c r="K7">
-        <v>1.057587605303929</v>
+        <v>1.046880787073546</v>
       </c>
       <c r="L7">
-        <v>1.071923434628312</v>
+        <v>1.049155588008759</v>
       </c>
       <c r="M7">
-        <v>1.078756889053842</v>
+        <v>1.055332696146579</v>
       </c>
       <c r="N7">
-        <v>1.023770269205725</v>
+        <v>1.016182365325939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054201041600414</v>
+        <v>1.012875786166552</v>
       </c>
       <c r="D8">
-        <v>1.053619533963751</v>
+        <v>1.02947183473158</v>
       </c>
       <c r="E8">
-        <v>1.067558461318263</v>
+        <v>1.029989290209952</v>
       </c>
       <c r="F8">
-        <v>1.074342742577213</v>
+        <v>1.03595194440644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044162228954423</v>
+        <v>1.052665563141267</v>
       </c>
       <c r="J8">
-        <v>1.059098272625486</v>
+        <v>1.034116969818388</v>
       </c>
       <c r="K8">
-        <v>1.056302706849705</v>
+        <v>1.040266858035388</v>
       </c>
       <c r="L8">
-        <v>1.070204610315209</v>
+        <v>1.040777800287992</v>
       </c>
       <c r="M8">
-        <v>1.076971246733027</v>
+        <v>1.046665987113835</v>
       </c>
       <c r="N8">
-        <v>1.023232681370149</v>
+        <v>1.013403275409244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050684354862893</v>
+        <v>0.9939410165917253</v>
       </c>
       <c r="D9">
-        <v>1.050906143184571</v>
+        <v>1.014826872132034</v>
       </c>
       <c r="E9">
-        <v>1.064087693037093</v>
+        <v>1.012003718450589</v>
       </c>
       <c r="F9">
-        <v>1.070757388537441</v>
+        <v>1.01743838627992</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043168911161436</v>
+        <v>1.045803340740958</v>
       </c>
       <c r="J9">
-        <v>1.056393189943942</v>
+        <v>1.019709562518945</v>
       </c>
       <c r="K9">
-        <v>1.054020849829728</v>
+        <v>1.027683888201161</v>
       </c>
       <c r="L9">
-        <v>1.067161287600447</v>
+        <v>1.024905000135895</v>
       </c>
       <c r="M9">
-        <v>1.073810601644472</v>
+        <v>1.030254734600959</v>
       </c>
       <c r="N9">
-        <v>1.022275463068776</v>
+        <v>1.008107431853042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048330323989522</v>
+        <v>0.9802578074310156</v>
       </c>
       <c r="D10">
-        <v>1.049087895379035</v>
+        <v>1.004264348632493</v>
       </c>
       <c r="E10">
-        <v>1.061766193076434</v>
+        <v>0.9990474771609442</v>
       </c>
       <c r="F10">
-        <v>1.068359727875051</v>
+        <v>1.004105231159706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042494149757601</v>
+        <v>1.040766062261526</v>
       </c>
       <c r="J10">
-        <v>1.054578368808441</v>
+        <v>1.009277209629008</v>
       </c>
       <c r="K10">
-        <v>1.052487375052007</v>
+        <v>1.018557033448909</v>
       </c>
       <c r="L10">
-        <v>1.065122189376543</v>
+        <v>1.013433951025407</v>
       </c>
       <c r="M10">
-        <v>1.071693558035738</v>
+        <v>1.018400757883974</v>
       </c>
       <c r="N10">
-        <v>1.021630504976667</v>
+        <v>1.004261901440361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047308612363881</v>
+        <v>0.9740343275438184</v>
       </c>
       <c r="D11">
-        <v>1.0482982832074</v>
+        <v>0.9994676029569043</v>
       </c>
       <c r="E11">
-        <v>1.060759033776252</v>
+        <v>0.9931659595547319</v>
       </c>
       <c r="F11">
-        <v>1.067319641404722</v>
+        <v>0.9980533834230824</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042198955584949</v>
+        <v>1.038457674860048</v>
       </c>
       <c r="J11">
-        <v>1.053789728467163</v>
+        <v>1.004528676490412</v>
       </c>
       <c r="K11">
-        <v>1.051820385837317</v>
+        <v>1.014399566495198</v>
       </c>
       <c r="L11">
-        <v>1.064236714620773</v>
+        <v>1.008217917006132</v>
       </c>
       <c r="M11">
-        <v>1.070774393186369</v>
+        <v>1.013012103687694</v>
       </c>
       <c r="N11">
-        <v>1.021349583046477</v>
+        <v>1.002509574584662</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046928732103372</v>
+        <v>0.9716730700538768</v>
       </c>
       <c r="D12">
-        <v>1.0480046337129</v>
+        <v>0.9976490099505573</v>
       </c>
       <c r="E12">
-        <v>1.060384629887008</v>
+        <v>0.990936300485008</v>
       </c>
       <c r="F12">
-        <v>1.066933014266863</v>
+        <v>0.9957592643741359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042088850510707</v>
+        <v>1.037579374029523</v>
       </c>
       <c r="J12">
-        <v>1.053496362102849</v>
+        <v>1.002726615283309</v>
       </c>
       <c r="K12">
-        <v>1.051572181371409</v>
+        <v>1.012821390250439</v>
       </c>
       <c r="L12">
-        <v>1.063907420839542</v>
+        <v>1.006239231437628</v>
       </c>
       <c r="M12">
-        <v>1.070432594290816</v>
+        <v>1.010968163677896</v>
       </c>
       <c r="N12">
-        <v>1.021244985306196</v>
+        <v>1.001844337221494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047010234668252</v>
+        <v>0.9721818949335826</v>
       </c>
       <c r="D13">
-        <v>1.048067638585096</v>
+        <v>0.9980408317801769</v>
       </c>
       <c r="E13">
-        <v>1.060464954524006</v>
+        <v>0.9914166810389393</v>
       </c>
       <c r="F13">
-        <v>1.067015960503285</v>
+        <v>0.9962535278908877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042112489149511</v>
+        <v>1.037768747525293</v>
       </c>
       <c r="J13">
-        <v>1.053559309780656</v>
+        <v>1.003114956002149</v>
       </c>
       <c r="K13">
-        <v>1.051625442766774</v>
+        <v>1.013161502426886</v>
       </c>
       <c r="L13">
-        <v>1.063978073217761</v>
+        <v>1.006665598699864</v>
       </c>
       <c r="M13">
-        <v>1.070505928660317</v>
+        <v>1.011408581613194</v>
       </c>
       <c r="N13">
-        <v>1.02126743327238</v>
+        <v>1.001987704031603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047277218973182</v>
+        <v>0.9738401864973116</v>
       </c>
       <c r="D14">
-        <v>1.04827401727766</v>
+        <v>0.9993180506879021</v>
       </c>
       <c r="E14">
-        <v>1.060728091610459</v>
+        <v>0.9929825999251608</v>
       </c>
       <c r="F14">
-        <v>1.067287688712707</v>
+        <v>0.9978647205902059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04218986360378</v>
+        <v>1.038385510866591</v>
       </c>
       <c r="J14">
-        <v>1.053765487534619</v>
+        <v>1.004380519797295</v>
       </c>
       <c r="K14">
-        <v>1.051799878498368</v>
+        <v>1.014269824804289</v>
       </c>
       <c r="L14">
-        <v>1.064209503080576</v>
+        <v>1.008055223097202</v>
       </c>
       <c r="M14">
-        <v>1.070746147789659</v>
+        <v>1.012844039701167</v>
       </c>
       <c r="N14">
-        <v>1.021340942097774</v>
+        <v>1.002454886343763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047441667332267</v>
+        <v>0.9748551916445787</v>
       </c>
       <c r="D15">
-        <v>1.048401127097778</v>
+        <v>1.000099993621565</v>
       </c>
       <c r="E15">
-        <v>1.060890179006438</v>
+        <v>0.9939413140787581</v>
       </c>
       <c r="F15">
-        <v>1.067455070351026</v>
+        <v>0.9988511675725866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042237475924338</v>
+        <v>1.038762697901421</v>
       </c>
       <c r="J15">
-        <v>1.053892463205742</v>
+        <v>1.005155094244795</v>
       </c>
       <c r="K15">
-        <v>1.051907293623259</v>
+        <v>1.014948107336186</v>
       </c>
       <c r="L15">
-        <v>1.064352042846431</v>
+        <v>1.008905831330983</v>
       </c>
       <c r="M15">
-        <v>1.070894104082911</v>
+        <v>1.01372273346284</v>
       </c>
       <c r="N15">
-        <v>1.021386199989685</v>
+        <v>1.002740791576237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048398080159848</v>
+        <v>0.9806641611723684</v>
       </c>
       <c r="D16">
-        <v>1.049140250307993</v>
+        <v>1.004577717161013</v>
       </c>
       <c r="E16">
-        <v>1.061832993360174</v>
+        <v>0.9994317490988807</v>
       </c>
       <c r="F16">
-        <v>1.068428714475442</v>
+        <v>1.004500647281185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042513676947592</v>
+        <v>1.040916438288488</v>
       </c>
       <c r="J16">
-        <v>1.054630648374251</v>
+        <v>1.009587194330359</v>
       </c>
       <c r="K16">
-        <v>1.052531577488566</v>
+        <v>1.018828372184712</v>
       </c>
       <c r="L16">
-        <v>1.065180901340746</v>
+        <v>1.013774563137693</v>
       </c>
       <c r="M16">
-        <v>1.071754507160144</v>
+        <v>1.018752673507654</v>
       </c>
       <c r="N16">
-        <v>1.021649113819732</v>
+        <v>1.004376258287094</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048997362608279</v>
+        <v>0.9842249150675726</v>
       </c>
       <c r="D17">
-        <v>1.049603262377214</v>
+        <v>1.007324524392046</v>
       </c>
       <c r="E17">
-        <v>1.062423871332043</v>
+        <v>1.002800296835089</v>
       </c>
       <c r="F17">
-        <v>1.069038944582029</v>
+        <v>1.007966971867428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042686120156578</v>
+        <v>1.042232204314868</v>
       </c>
       <c r="J17">
-        <v>1.055092934312603</v>
+        <v>1.012303101416972</v>
       </c>
       <c r="K17">
-        <v>1.052922370594503</v>
+        <v>1.021205335516016</v>
       </c>
       <c r="L17">
-        <v>1.065700138457478</v>
+        <v>1.016759404211137</v>
       </c>
       <c r="M17">
-        <v>1.072293547459451</v>
+        <v>1.021836738468764</v>
       </c>
       <c r="N17">
-        <v>1.02181358877065</v>
+        <v>1.005377975085563</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049346682992955</v>
+        <v>0.9862733889767977</v>
       </c>
       <c r="D18">
-        <v>1.0498731081523</v>
+        <v>1.008905414177061</v>
       </c>
       <c r="E18">
-        <v>1.062768334447768</v>
+        <v>1.004739245317356</v>
       </c>
       <c r="F18">
-        <v>1.069394700402342</v>
+        <v>1.009962273652717</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042786412397586</v>
+        <v>1.04298752481396</v>
       </c>
       <c r="J18">
-        <v>1.055362307216305</v>
+        <v>1.013865192628916</v>
       </c>
       <c r="K18">
-        <v>1.053150026087282</v>
+        <v>1.022572178942647</v>
       </c>
       <c r="L18">
-        <v>1.066002756993207</v>
+        <v>1.018476671596597</v>
       </c>
       <c r="M18">
-        <v>1.072607722736812</v>
+        <v>1.023611232793249</v>
       </c>
       <c r="N18">
-        <v>1.021909365137815</v>
+        <v>1.005953940242583</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049465753360239</v>
+        <v>0.986967171957904</v>
       </c>
       <c r="D19">
-        <v>1.049965081256954</v>
+        <v>1.009440942015615</v>
       </c>
       <c r="E19">
-        <v>1.062885756202554</v>
+        <v>1.00539610768552</v>
       </c>
       <c r="F19">
-        <v>1.069515973522546</v>
+        <v>1.010638239401523</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042820560209127</v>
+        <v>1.043243059020308</v>
       </c>
       <c r="J19">
-        <v>1.055454110744933</v>
+        <v>1.014394183372604</v>
       </c>
       <c r="K19">
-        <v>1.053227602157826</v>
+        <v>1.023034998201874</v>
       </c>
       <c r="L19">
-        <v>1.066105901020236</v>
+        <v>1.019058295680515</v>
       </c>
       <c r="M19">
-        <v>1.072714808318812</v>
+        <v>1.02421226291962</v>
       </c>
       <c r="N19">
-        <v>1.021941995504259</v>
+        <v>1.006148953404024</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048933089234351</v>
+        <v>0.9838458549239871</v>
       </c>
       <c r="D20">
-        <v>1.049553608508117</v>
+        <v>1.007032041381275</v>
       </c>
       <c r="E20">
-        <v>1.062360495025802</v>
+        <v>1.002441587873226</v>
       </c>
       <c r="F20">
-        <v>1.068973491466792</v>
+        <v>1.007597843354477</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042667648752699</v>
+        <v>1.042092302998709</v>
       </c>
       <c r="J20">
-        <v>1.055043363459843</v>
+        <v>1.012014014879011</v>
       </c>
       <c r="K20">
-        <v>1.052880471979297</v>
+        <v>1.02095235763931</v>
       </c>
       <c r="L20">
-        <v>1.065644454497558</v>
+        <v>1.016441640338218</v>
       </c>
       <c r="M20">
-        <v>1.072235738198997</v>
+        <v>1.021508396669581</v>
       </c>
       <c r="N20">
-        <v>1.021795958640685</v>
+        <v>1.005271369302048</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047198609077027</v>
+        <v>0.9733532710707158</v>
       </c>
       <c r="D21">
-        <v>1.048213253680382</v>
+        <v>0.9989429886272426</v>
       </c>
       <c r="E21">
-        <v>1.06065061265698</v>
+        <v>0.9925227551817204</v>
       </c>
       <c r="F21">
-        <v>1.067207679686506</v>
+        <v>0.9973915778022142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042167091393223</v>
+        <v>1.038204480689173</v>
       </c>
       <c r="J21">
-        <v>1.053704785265358</v>
+        <v>1.004008929226399</v>
       </c>
       <c r="K21">
-        <v>1.05174852413579</v>
+        <v>1.013944414122147</v>
       </c>
       <c r="L21">
-        <v>1.064141363563303</v>
+        <v>1.007647184565945</v>
       </c>
       <c r="M21">
-        <v>1.070675419809122</v>
+        <v>1.012422536624224</v>
       </c>
       <c r="N21">
-        <v>1.021319302527599</v>
+        <v>1.002317719708147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046105920450395</v>
+        <v>0.966466431763864</v>
       </c>
       <c r="D22">
-        <v>1.047368477147256</v>
+        <v>0.9936417392398958</v>
       </c>
       <c r="E22">
-        <v>1.059573800832433</v>
+        <v>0.9860234533464535</v>
       </c>
       <c r="F22">
-        <v>1.066095745311604</v>
+        <v>0.9907045861628226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041849726420446</v>
+        <v>1.035638282759193</v>
       </c>
       <c r="J22">
-        <v>1.052860674884668</v>
+        <v>0.9987524135450376</v>
       </c>
       <c r="K22">
-        <v>1.051034187956304</v>
+        <v>1.009340215654556</v>
       </c>
       <c r="L22">
-        <v>1.063194055477602</v>
+        <v>1.001876967790622</v>
       </c>
       <c r="M22">
-        <v>1.069692181842595</v>
+        <v>1.006462463785337</v>
       </c>
       <c r="N22">
-        <v>1.021018157292891</v>
+        <v>1.000376889807677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046685382850977</v>
+        <v>0.9701465080462718</v>
       </c>
       <c r="D23">
-        <v>1.047816505105496</v>
+        <v>0.9964736945406714</v>
       </c>
       <c r="E23">
-        <v>1.060144807346355</v>
+        <v>0.989495361112779</v>
       </c>
       <c r="F23">
-        <v>1.066685367020937</v>
+        <v>0.9942766979365384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042018219423697</v>
+        <v>1.0370108690836</v>
       </c>
       <c r="J23">
-        <v>1.05330839275552</v>
+        <v>1.001561476592947</v>
       </c>
       <c r="K23">
-        <v>1.051413123122504</v>
+        <v>1.011800893800828</v>
       </c>
       <c r="L23">
-        <v>1.063696458090546</v>
+        <v>1.004960117545379</v>
       </c>
       <c r="M23">
-        <v>1.07021362678536</v>
+        <v>1.009646931102285</v>
       </c>
       <c r="N23">
-        <v>1.021177938714871</v>
+        <v>1.001414164716546</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048962132319121</v>
+        <v>0.9840172234672309</v>
       </c>
       <c r="D24">
-        <v>1.049576045638348</v>
+        <v>1.007164267366923</v>
       </c>
       <c r="E24">
-        <v>1.062389132625544</v>
+        <v>1.002603752641158</v>
       </c>
       <c r="F24">
-        <v>1.06900306747189</v>
+        <v>1.007764718356156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042675996084173</v>
+        <v>1.042155555779139</v>
       </c>
       <c r="J24">
-        <v>1.055065763230939</v>
+        <v>1.012144708528582</v>
       </c>
       <c r="K24">
-        <v>1.052899405048566</v>
+        <v>1.021066727794858</v>
       </c>
       <c r="L24">
-        <v>1.065669616435317</v>
+        <v>1.016585297236156</v>
       </c>
       <c r="M24">
-        <v>1.072261860450423</v>
+        <v>1.021656835273373</v>
       </c>
       <c r="N24">
-        <v>1.021803925429189</v>
+        <v>1.005319565483798</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051595150525509</v>
+        <v>0.9990086808961017</v>
       </c>
       <c r="D25">
-        <v>1.051609236261452</v>
+        <v>1.01874364062199</v>
       </c>
       <c r="E25">
-        <v>1.064986283180051</v>
+        <v>1.016810844574605</v>
       </c>
       <c r="F25">
-        <v>1.07168556026776</v>
+        <v>1.022386035360827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043427906970109</v>
+        <v>1.047653588670387</v>
       </c>
       <c r="J25">
-        <v>1.057094503760869</v>
+        <v>1.023569453000901</v>
       </c>
       <c r="K25">
-        <v>1.054612896631418</v>
+        <v>1.031057790461622</v>
       </c>
       <c r="L25">
-        <v>1.067949827408631</v>
+        <v>1.029153680857126</v>
       </c>
       <c r="M25">
-        <v>1.074629423666934</v>
+        <v>1.034646499253588</v>
       </c>
       <c r="N25">
-        <v>1.022524117154669</v>
+        <v>1.009528264130817</v>
       </c>
     </row>
   </sheetData>
